--- a/GridSearchResults/Hyperparameters_NTSK-RLS_Yulara_8_Site_5_Power.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_Yulara_8_Site_5_Power.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,21 +490,19 @@
       <c r="D2" t="n">
         <v>0.95</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.136128162321535e+140</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.896339335057897e+139</v>
       </c>
       <c r="H2" t="n">
-        <v>6.644287158739374e+163</v>
+        <v>1.13600797758886e+140</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -525,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.96</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>182.7425203781405</v>
+        <v>505.0920875197271</v>
       </c>
       <c r="G3" t="n">
-        <v>30.50200154114415</v>
+        <v>84.30615710053063</v>
       </c>
       <c r="H3" t="n">
-        <v>162.2235732685988</v>
+        <v>481.8763475666818</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -556,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.97</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>6.555381511921649</v>
+        <v>6.556937094707963</v>
       </c>
       <c r="G4" t="n">
-        <v>1.094174779715581</v>
+        <v>1.094434425847458</v>
       </c>
       <c r="H4" t="n">
-        <v>5.363027663496529</v>
+        <v>5.365066719927139</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -587,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.98</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>6.213408946823789</v>
+        <v>6.213408710176207</v>
       </c>
       <c r="G5" t="n">
-        <v>1.03709530151828</v>
+        <v>1.037095262018853</v>
       </c>
       <c r="H5" t="n">
-        <v>4.926390374123074</v>
+        <v>4.926389891355839</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -618,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.99</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>5.987407937079318</v>
+        <v>5.987407937800259</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9993729195939112</v>
+        <v>0.9993729197142451</v>
       </c>
       <c r="H6" t="n">
-        <v>4.58405312118407</v>
+        <v>4.584053117668564</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -649,17 +655,19 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>6.02554698623732</v>
+        <v>6.025546986257404</v>
       </c>
       <c r="G7" t="n">
-        <v>1.005738801676461</v>
+        <v>1.005738801679813</v>
       </c>
       <c r="H7" t="n">
-        <v>4.798328146655766</v>
+        <v>4.798328146692079</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
